--- a/vytrack_testusers.xlsx
+++ b/vytrack_testusers.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3864" uniqueCount="1479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3866" uniqueCount="1480">
   <si>
     <t>username</t>
   </si>
@@ -4473,6 +4473,9 @@
   </si>
   <si>
     <t>PASSED</t>
+  </si>
+  <si>
+    <t>FAILED</t>
   </si>
 </sst>
 </file>
@@ -4833,8 +4836,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.6640625" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.83203125" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.83203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -9077,8 +9080,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.6640625" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.83203125" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.83203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -9369,7 +9372,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.83203125" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.83203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -13616,7 +13619,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.83203125" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.83203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -13667,7 +13670,7 @@
         <v>307</v>
       </c>
       <c r="E3" t="s">
-        <v>1477</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -13907,7 +13910,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.83203125" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.83203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -18154,7 +18157,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" bestFit="true" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.83203125" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.83203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
